--- a/measurement/Measurements.xlsx
+++ b/measurement/Measurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/Developer/Progettazione di un nodo FastFlow per integrazione di acceleratori - TESI Unipi/measurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D642082B-CD80-FE48-A05C-649D109C2FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C73F69-A5EC-284A-A6AD-04C61BACD616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="500" windowWidth="43720" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -362,37 +362,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -407,40 +398,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -664,8 +652,8 @@
   </sheetPr>
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -866,18 +854,18 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="19"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -979,18 +967,18 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="19"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="K14" s="3"/>
@@ -1062,35 +1050,35 @@
       <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>10000</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>0.12261900000000001</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>8155.4</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>1.2261899999999999E-2</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1099,13 +1087,13 @@
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="4">
         <v>10000</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="4">
         <v>0.15898100000000001</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1114,10 +1102,10 @@
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="4">
         <v>6290.1</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <v>1.5898099999999998E-2</v>
       </c>
       <c r="L18" s="3"/>
@@ -1126,49 +1114,49 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>10000</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="19">
         <v>0.51483100000000004</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>1942.4</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="20">
         <v>5.1483099999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="19"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1177,34 +1165,34 @@
       <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="4">
         <v>10000</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="4">
         <v>0.33593099999999998</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="4">
         <v>23.393699999999999</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="4">
         <v>0.36467500000000003</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="4">
         <v>23.0291</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="4">
         <v>406</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="16">
         <v>0.24628700000000001</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1213,73 +1201,73 @@
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="4">
         <v>10000</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="4">
         <v>0.40632299999999999</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="4">
         <v>25.9541</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="4">
         <v>0.41290199999999999</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="4">
         <v>25.5412</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="4">
         <v>915.4</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <v>0.10924</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="17">
         <v>10000</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="17">
         <v>0.37729099999999999</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>23.256599999999999</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="17">
         <v>0.37887399999999999</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="17">
         <v>22.877700000000001</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>861.3</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="20">
         <v>0.116104</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="19"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1288,34 +1276,34 @@
       <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="4">
         <v>10000</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="4">
         <v>0.14694099999999999</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="4">
         <v>9.6004199999999997</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="4">
         <v>0.13222999999999999</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="4">
         <v>9.4681899999999999</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="4">
         <v>1505.8</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="16">
         <v>6.6409399999999993E-2</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1324,62 +1312,62 @@
       <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="4">
         <v>10000</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="4">
         <v>0.128001</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="4">
         <v>8.9538799999999998</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="4">
         <v>0.112563</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="4">
         <v>8.84131</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="4">
         <v>1626.8</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="16">
         <v>6.1471699999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="24">
         <v>10000</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="24">
         <v>0.17102600000000001</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="24">
         <v>11.5623</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="24">
         <v>0.15789</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="24">
         <v>11.404400000000001</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="25">
         <v>1413.3</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="26">
         <v>7.0757600000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
@@ -1388,8 +1376,8 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="37"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
@@ -1401,46 +1389,46 @@
       <c r="C29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>1000000</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="27">
         <v>4.1725300000000001</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="27">
         <v>239.7</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="28">
         <v>0.41725299999999999</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
     </row>
     <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1449,13 +1437,13 @@
       <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="4">
         <v>1000000</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="29">
         <v>7.6208099999999996</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -1464,57 +1452,57 @@
       <c r="H30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="29">
         <v>131.19999999999999</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="30">
         <v>0.76208100000000001</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="17">
         <v>1000000</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <v>44.773600000000002</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="19">
         <v>22.3</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="20">
         <v>4.47736</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="19"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1523,45 +1511,45 @@
       <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="4">
         <v>1000000</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="4">
         <v>1.12442</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="4">
         <v>61.3596</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="4">
         <v>1.12229</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="4">
         <v>60.237299999999998</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="4">
         <v>448.8</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="16">
         <v>0.222803</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
     </row>
     <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1570,73 +1558,73 @@
       <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="4">
         <v>1000000</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="4">
         <v>2.1075599999999999</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="4">
         <v>66.963200000000001</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="4">
         <v>2.0559799999999999</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="4">
         <v>64.907200000000003</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="4">
         <v>325.8</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="16">
         <v>0.306925</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="17">
         <v>1000000</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="17">
         <v>1.7266999999999999</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="17">
         <v>90.659800000000004</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="17">
         <v>1.7418</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="17">
         <v>88.918000000000006</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="19">
         <v>420.2</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="20">
         <v>0.23796</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="19"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1645,45 +1633,45 @@
       <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="4">
         <v>1000000</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="4">
         <v>0.54823200000000005</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="4">
         <v>42.514099999999999</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="4">
         <v>0.37360500000000002</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="4">
         <v>42.140500000000003</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="4">
         <v>838.1</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="16">
         <v>0.11931899999999999</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
     </row>
     <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1692,70 +1680,70 @@
       <c r="C38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="4">
         <v>1000000</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="4">
         <v>0.466221</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="4">
         <v>33.942500000000003</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="4">
         <v>0.29020899999999999</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="4">
         <v>33.652299999999997</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="4">
         <v>962.8</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="16">
         <v>0.103862</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="24">
         <v>1000000</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="24">
         <v>0.59791700000000003</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="24">
         <v>51.519100000000002</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="24">
         <v>0.46532699999999999</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="24">
         <v>51.053800000000003</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="25">
         <v>701.4</v>
       </c>
-      <c r="J39" s="35">
+      <c r="J39" s="31">
         <v>0.14257800000000001</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="37"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="33"/>
     </row>
     <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
@@ -1767,46 +1755,46 @@
       <c r="C41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>7449999</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>34.0764</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <v>29.3</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="14">
         <v>3.4076399999999998</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
     </row>
     <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1815,13 +1803,13 @@
       <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="4">
         <v>7449999</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="4">
         <v>56.963200000000001</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -1830,42 +1818,42 @@
       <c r="H42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="16">
         <v>5.6963200000000001</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="17">
         <v>7449999</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="17">
         <v>322.73200000000003</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="19">
         <v>3.1</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="20">
         <v>32.273200000000003</v>
       </c>
       <c r="L43" s="6"/>
@@ -1885,17 +1873,17 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="19"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1904,30 +1892,30 @@
       <c r="C45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="4">
         <v>7449999</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="4">
         <v>3.9340899999999999</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="4">
         <v>215.084</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="4">
         <v>4.1115300000000001</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="4">
         <v>210.97200000000001</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="4">
         <v>207.6</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J45" s="16">
         <v>0.481742</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1936,88 +1924,88 @@
       <c r="C46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="4">
         <v>7449999</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="4">
         <v>4.8038400000000001</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="4">
         <v>258.60599999999999</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="4">
         <v>4.8339800000000004</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="4">
         <v>253.77199999999999</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="4">
         <v>157.4</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="16">
         <v>0.635293</v>
       </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
     </row>
     <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="17">
         <v>7449999</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="17">
         <v>5.6659800000000002</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="17">
         <v>310.26900000000001</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="17">
         <v>5.8712099999999996</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="17">
         <v>304.39800000000002</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="19">
         <v>150.1</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="32">
         <v>0.73435600000000001</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="19"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2026,30 +2014,30 @@
       <c r="C49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="4">
         <v>7449999</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="4">
         <v>3.2709600000000001</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="4">
         <v>209.21100000000001</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="4">
         <v>1.17543</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="4">
         <v>208.035</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="4">
         <v>231.8</v>
       </c>
-      <c r="J49" s="18">
+      <c r="J49" s="16">
         <v>0.43140600000000001</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2058,72 +2046,72 @@
       <c r="C50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="4">
         <v>7449999</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="4">
         <v>3.2669100000000002</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="4">
         <v>213.291</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="4">
         <v>0.96102500000000002</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="4">
         <v>212.33</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="4">
         <v>215.8</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="16">
         <v>0.46335300000000001</v>
       </c>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
     </row>
     <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="24">
         <v>7449999</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="24">
         <v>3.6088200000000001</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="24">
         <v>252.68799999999999</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="24">
         <v>1.9706300000000001</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="24">
         <v>250.71799999999999</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="25">
         <v>222.1</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="26">
         <v>0.45016400000000001</v>
       </c>
     </row>
@@ -2135,7 +2123,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="37"/>
+      <c r="K52" s="33"/>
     </row>
     <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
@@ -2169,21 +2157,21 @@
       <c r="J54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
     </row>
     <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
@@ -2195,45 +2183,45 @@
       <c r="C55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <v>10000</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="12">
         <v>0.14646700000000001</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="12">
         <v>6827.5</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="14">
         <v>1.46467E-2</v>
       </c>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
     </row>
     <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2242,13 +2230,13 @@
       <c r="C56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="4">
         <v>10000</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="4">
         <v>0.223549</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -2257,30 +2245,30 @@
       <c r="H56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="4">
         <v>4473.3</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="16">
         <v>2.23549E-2</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="17">
         <v>10000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="17">
         <v>0.75298500000000002</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -2289,39 +2277,39 @@
       <c r="H57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="19">
         <v>1328.1</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="20">
         <v>7.5298500000000004E-2</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="25"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
+      <c r="J58" s="22"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
     </row>
     <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2330,13 +2318,13 @@
       <c r="C59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="4">
         <v>10000</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="4">
         <v>4.2711100000000002</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -2345,15 +2333,15 @@
       <c r="H59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="4">
         <v>234.1</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="16">
         <v>0.42711100000000002</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2362,13 +2350,13 @@
       <c r="C60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="4">
         <v>10000</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="4">
         <v>4.2860500000000004</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -2377,30 +2365,30 @@
       <c r="H60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="4">
         <v>233.3</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="16">
         <v>0.42860500000000001</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="17">
         <v>10000</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="17">
         <v>4.5094700000000003</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -2409,40 +2397,40 @@
       <c r="H61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="19">
         <v>221.8</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="20">
         <v>0.45094699999999999</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
+      <c r="A62" s="15"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="25"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="19"/>
+      <c r="J62" s="22"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
     </row>
     <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2451,30 +2439,30 @@
       <c r="C63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="4">
         <v>10000</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="4">
         <v>0.14222499999999999</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="4">
         <v>20.387</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="4">
         <v>0.136716</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="4">
         <v>20.2502</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="4">
         <v>334.5</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="16">
         <v>0.29896800000000001</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2483,62 +2471,62 @@
       <c r="C64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="4">
         <v>10000</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="4">
         <v>0.162019</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="4">
         <v>21.209800000000001</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="4">
         <v>0.15271699999999999</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="4">
         <v>21.057099999999998</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="4">
         <v>286.39999999999998</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J64" s="16">
         <v>0.34915000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="24">
         <v>10000</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="24">
         <v>3.5278100000000001</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="24">
         <v>196.18199999999999</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="24">
         <v>3.5524200000000001</v>
       </c>
-      <c r="H65" s="38">
+      <c r="H65" s="34">
         <v>192.63</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I65" s="25">
         <v>152.30000000000001</v>
       </c>
-      <c r="J65" s="30">
+      <c r="J65" s="26">
         <v>0.65673800000000004</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
@@ -2547,22 +2535,22 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="25"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
+      <c r="J66" s="22"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
     </row>
     <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="s">
@@ -2574,45 +2562,45 @@
       <c r="C67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="12">
         <v>1000000</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="12">
         <v>6.3372200000000003</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="12">
         <v>157.80000000000001</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="14">
         <v>0.63372200000000001</v>
       </c>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
     </row>
     <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -2621,13 +2609,13 @@
       <c r="C68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="4">
         <v>1000000</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="4">
         <v>8.7676999999999996</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -2636,30 +2624,30 @@
       <c r="H68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="4">
         <v>114.1</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J68" s="16">
         <v>0.87677000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="17">
         <v>1000000</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="17">
         <v>30.4086</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -2668,39 +2656,39 @@
       <c r="H69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="19">
         <v>32.9</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J69" s="20">
         <v>3.0408599999999999</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
+      <c r="A70" s="15"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="25"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="19"/>
+      <c r="J70" s="22"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
     </row>
     <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -2709,13 +2697,13 @@
       <c r="C71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="4">
         <v>1000000</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="4">
         <v>11.484999999999999</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -2724,15 +2712,15 @@
       <c r="H71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="4">
         <v>87.1</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="16">
         <v>1.1485000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -2741,13 +2729,13 @@
       <c r="C72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="4">
         <v>1000000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="4">
         <v>11.607200000000001</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -2756,30 +2744,30 @@
       <c r="H72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="4">
         <v>86.2</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J72" s="16">
         <v>1.16072</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="17">
         <v>1000000</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="17">
         <v>31.3567</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -2788,40 +2776,40 @@
       <c r="H73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="19">
         <v>31.9</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J73" s="20">
         <v>3.1356700000000002</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="16"/>
+      <c r="A74" s="15"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="25"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="19"/>
-      <c r="Z74" s="19"/>
+      <c r="J74" s="22"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
     </row>
     <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -2830,30 +2818,30 @@
       <c r="C75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="4">
         <v>1000000</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="4">
         <v>6.9690500000000002</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="4">
         <v>395.923</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="4">
         <v>7.0952400000000004</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="4">
         <v>388.82799999999997</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="4">
         <v>102.5</v>
       </c>
-      <c r="J75" s="18">
+      <c r="J75" s="16">
         <v>0.97569399999999995</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -2862,84 +2850,84 @@
       <c r="C76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="4">
         <v>1000000</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="4">
         <v>7.0462400000000001</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="4">
         <v>399.89100000000002</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="4">
         <v>7.1683199999999996</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="4">
         <v>392.72300000000001</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="4">
         <v>97.4</v>
       </c>
-      <c r="J76" s="18">
+      <c r="J76" s="16">
         <v>1.02643</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="28">
+      <c r="D77" s="24">
         <v>1000000</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77" s="24">
         <v>339.77300000000002</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77" s="24">
         <v>17713.400000000001</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="24">
         <v>343.36700000000002</v>
       </c>
-      <c r="H77" s="28">
+      <c r="H77" s="24">
         <v>17370</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="24">
         <v>2.9</v>
       </c>
-      <c r="J77" s="30">
+      <c r="J77" s="26">
         <v>34.639099999999999</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="16"/>
+      <c r="A78" s="15"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="25"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
-      <c r="Z78" s="37"/>
+      <c r="J78" s="22"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
     </row>
     <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
@@ -2951,30 +2939,30 @@
       <c r="C79" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="12">
         <v>7449999</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="12">
         <v>45.411499999999997</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="12">
         <v>22.1</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J79" s="14">
         <v>4.54115</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -2983,13 +2971,13 @@
       <c r="C80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="4">
         <v>7449999</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="4">
         <v>63.796999999999997</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -2998,30 +2986,30 @@
       <c r="H80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="4">
         <v>15.7</v>
       </c>
-      <c r="J80" s="18">
+      <c r="J80" s="16">
         <v>6.3796999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="19">
         <v>7449999</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="17">
         <v>222.4</v>
       </c>
       <c r="G81" s="3" t="s">
@@ -3030,24 +3018,24 @@
       <c r="H81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="19">
         <v>4.5</v>
       </c>
-      <c r="J81" s="23">
+      <c r="J81" s="20">
         <v>22.24</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="16"/>
+      <c r="A82" s="15"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="25"/>
+      <c r="J82" s="22"/>
     </row>
     <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -3056,13 +3044,13 @@
       <c r="C83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D83" s="4">
         <v>7449999</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="4">
         <v>33.672199999999997</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -3071,15 +3059,15 @@
       <c r="H83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="4">
         <v>29.7</v>
       </c>
-      <c r="J83" s="18">
+      <c r="J83" s="16">
         <v>3.3672200000000001</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -3088,13 +3076,13 @@
       <c r="C84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="4">
         <v>7449999</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="4">
         <v>46.779000000000003</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -3103,30 +3091,30 @@
       <c r="H84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="4">
         <v>21.4</v>
       </c>
-      <c r="J84" s="18">
+      <c r="J84" s="16">
         <v>4.6779000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="17">
         <v>7449999</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="17">
         <v>175.55600000000001</v>
       </c>
       <c r="G85" s="3" t="s">
@@ -3135,25 +3123,25 @@
       <c r="H85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I85" s="17">
         <v>5.7</v>
       </c>
-      <c r="J85" s="23">
+      <c r="J85" s="20">
         <v>17.555599999999998</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="16"/>
+      <c r="A86" s="15"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="25"/>
+      <c r="J86" s="22"/>
     </row>
     <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -3162,30 +3150,30 @@
       <c r="C87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="4">
         <v>7449999</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="4">
         <v>52.764200000000002</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="4">
         <v>2892.37</v>
       </c>
-      <c r="G87" s="33">
+      <c r="G87" s="29">
         <v>51.811500000000002</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="4">
         <v>2838.99</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="16">
         <v>5.6660599999999999</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -3194,57 +3182,57 @@
       <c r="C88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="4">
         <v>7449999</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="4">
         <v>51.533000000000001</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F88" s="29">
         <v>3011.39</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="4">
         <v>52.560699999999997</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="4">
         <v>2806.44</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J88" s="16">
         <v>5.59971</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="24">
         <v>7449999</v>
       </c>
-      <c r="E89" s="28">
+      <c r="E89" s="24">
         <v>2530.79</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="24">
         <v>131842</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G89" s="24">
         <v>2557.52</v>
       </c>
-      <c r="H89" s="28">
+      <c r="H89" s="24">
         <v>129285</v>
       </c>
-      <c r="I89" s="28">
+      <c r="I89" s="24">
         <v>0.4</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="35">
         <v>256.13099999999997</v>
       </c>
     </row>
